--- a/test.xlsx
+++ b/test.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilfoyle\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="7845" windowHeight="9960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7850" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="90">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -196,18 +201,12 @@
     <t>陈嫣蕊</t>
   </si>
   <si>
-    <t>2022/6/270 0027 11:10:31</t>
-  </si>
-  <si>
     <t>220627陈嫣蕊001</t>
   </si>
   <si>
     <t>BauhiiablakeaaDu.</t>
   </si>
   <si>
-    <t>2022/6/270 0027 11:15:59</t>
-  </si>
-  <si>
     <t>220627陈嫣蕊002</t>
   </si>
   <si>
@@ -217,15 +216,9 @@
     <t>Lagerstroemiaspeciosa(L.)Pers.</t>
   </si>
   <si>
-    <t>2022/6/270 0027 11:19:17</t>
-  </si>
-  <si>
     <t>220627陈嫣蕊005</t>
   </si>
   <si>
-    <t>2022/6/270 0027 11:17:51</t>
-  </si>
-  <si>
     <t>220627陈嫣蕊003</t>
   </si>
   <si>
@@ -244,9 +237,6 @@
     <t>7.5,7.3,5.5</t>
   </si>
   <si>
-    <t>2022.06.27 11:21:56</t>
-  </si>
-  <si>
     <t>220627陈嫣蕊004</t>
   </si>
   <si>
@@ -256,91 +246,46 @@
     <t>Alstoiascholaris（L.）R.Br.</t>
   </si>
   <si>
-    <t>2022/6/270 0027 11:26:22</t>
-  </si>
-  <si>
     <t>220627陈嫣蕊006</t>
   </si>
   <si>
-    <t>2022/6/270 0027 11:28:49</t>
-  </si>
-  <si>
     <t>220627陈嫣蕊007</t>
   </si>
   <si>
-    <t>2022/6/270 0027 11:31:37</t>
-  </si>
-  <si>
     <t>220627陈嫣蕊008</t>
   </si>
   <si>
-    <t>2022/6/270 0027 11:33:03</t>
-  </si>
-  <si>
     <t>220627陈嫣蕊009</t>
   </si>
   <si>
-    <t>2022/6/270 0027 11:34:17</t>
-  </si>
-  <si>
     <t>220627陈嫣蕊010</t>
   </si>
   <si>
-    <t>2022/6/270 0027 11:36:00</t>
-  </si>
-  <si>
     <t>220627陈嫣蕊011</t>
   </si>
   <si>
-    <t>2022/6/270 0027 11:37:27</t>
-  </si>
-  <si>
     <t>220627陈嫣蕊012</t>
   </si>
   <si>
-    <t>2022/6/270 0027 11:39:27</t>
-  </si>
-  <si>
     <t>220627陈嫣蕊013</t>
   </si>
   <si>
-    <t>2022/6/270 0027 11:41:09</t>
-  </si>
-  <si>
     <t>220627陈嫣蕊014</t>
   </si>
   <si>
-    <t>2022/6/270 0027 11:42:46</t>
-  </si>
-  <si>
     <t>220627陈嫣蕊015</t>
   </si>
   <si>
-    <t>2022/6/270 0027 11:44:37</t>
-  </si>
-  <si>
     <t>220627陈嫣蕊016</t>
   </si>
   <si>
-    <t>2022/6/270 0027 11:46:58</t>
-  </si>
-  <si>
     <t>220627陈嫣蕊018</t>
   </si>
   <si>
-    <t>2022/6/270 0027 11:45:38</t>
-  </si>
-  <si>
     <t>220627陈嫣蕊017</t>
   </si>
   <si>
-    <t>2022/6/270 0027 11:48:10</t>
-  </si>
-  <si>
     <t>220627陈嫣蕊019</t>
-  </si>
-  <si>
-    <t>2022/6/270 0027 11:49:57</t>
   </si>
   <si>
     <t>220627陈嫣蕊020</t>
@@ -349,15 +294,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,345 +307,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -712,255 +329,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,65 +345,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1286,28 +620,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AM23" sqref="AM23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="16" style="2"/>
     <col min="3" max="5" width="9" style="2"/>
-    <col min="6" max="7" width="12.625" style="2"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="6" max="7" width="12.6328125" style="2"/>
+    <col min="8" max="35" width="9" style="2"/>
+    <col min="36" max="36" width="4.26953125" style="2" customWidth="1"/>
+    <col min="37" max="38" width="9" style="2" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="41.90625" style="2" customWidth="1"/>
+    <col min="40" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:44">
+    <row r="1" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +779,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:40">
+    <row r="2" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>77211</v>
       </c>
@@ -1451,13 +789,11 @@
       <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
       <c r="F2" s="1">
         <v>113.4445601</v>
       </c>
       <c r="G2" s="1">
-        <v>22.9428039200001</v>
+        <v>22.942803920000099</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>45</v>
@@ -1483,16 +819,14 @@
       <c r="O2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
       <c r="R2" s="1">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="S2" s="1">
         <v>4.2</v>
       </c>
       <c r="T2" s="1">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="U2" s="1">
         <v>2.4</v>
@@ -1500,9 +834,6 @@
       <c r="V2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
       <c r="Z2" s="1">
         <v>5</v>
       </c>
@@ -1518,8 +849,6 @@
       <c r="AD2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
       <c r="AG2" s="1" t="s">
         <v>57</v>
       </c>
@@ -1532,18 +861,17 @@
       <c r="AJ2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK2" s="1"/>
       <c r="AL2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AM2" s="4">
+        <v>44739.465636574074</v>
+      </c>
+      <c r="AN2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AN2" s="1" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:40">
+    <row r="3" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>77220</v>
       </c>
@@ -1554,14 +882,13 @@
         <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>61</v>
+      </c>
       <c r="F3" s="1">
         <v>113.4445753</v>
       </c>
       <c r="G3" s="1">
-        <v>22.94279576</v>
+        <v>22.942795759999999</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>45</v>
@@ -1587,16 +914,14 @@
       <c r="O3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
       <c r="R3" s="1">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="S3" s="1">
         <v>3.7</v>
       </c>
       <c r="T3" s="1">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="U3" s="1">
         <v>4.5</v>
@@ -1604,9 +929,6 @@
       <c r="V3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
       <c r="Z3" s="1">
         <v>5</v>
       </c>
@@ -1622,8 +944,6 @@
       <c r="AD3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
       <c r="AG3" s="1" t="s">
         <v>57</v>
       </c>
@@ -1636,18 +956,17 @@
       <c r="AJ3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK3" s="1"/>
       <c r="AL3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM3" s="1" t="s">
-        <v>63</v>
+      <c r="AM3" s="4">
+        <v>44739.46943287037</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:40">
+    <row r="4" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>77221</v>
       </c>
@@ -1655,17 +974,16 @@
         <v>1656299957282</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>64</v>
+      </c>
       <c r="F4" s="1">
         <v>113.4445772</v>
       </c>
       <c r="G4" s="1">
-        <v>22.94281074</v>
+        <v>22.942810739999999</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>45</v>
@@ -1691,8 +1009,6 @@
       <c r="O4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
       <c r="R4" s="1">
         <v>6.5</v>
       </c>
@@ -1708,9 +1024,6 @@
       <c r="V4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
       <c r="Z4" s="1">
         <v>5</v>
       </c>
@@ -1726,7 +1039,6 @@
       <c r="AD4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AE4" s="1"/>
       <c r="AF4" s="1">
         <v>2</v>
       </c>
@@ -1742,18 +1054,17 @@
       <c r="AJ4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK4" s="1"/>
       <c r="AL4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM4" s="1" t="s">
-        <v>67</v>
+      <c r="AM4" s="4">
+        <v>44739.471724537034</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:40">
+    <row r="5" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>77222</v>
       </c>
@@ -1764,9 +1075,8 @@
         <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>61</v>
+      </c>
       <c r="F5" s="1">
         <v>113.4445912</v>
       </c>
@@ -1797,10 +1107,8 @@
       <c r="O5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
       <c r="R5" s="1">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="S5" s="1">
         <v>4.3</v>
@@ -1814,9 +1122,6 @@
       <c r="V5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
       <c r="Z5" s="1">
         <v>5</v>
       </c>
@@ -1832,8 +1137,6 @@
       <c r="AD5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
       <c r="AG5" s="1" t="s">
         <v>57</v>
       </c>
@@ -1846,18 +1149,17 @@
       <c r="AJ5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK5" s="1"/>
       <c r="AL5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM5" s="1" t="s">
-        <v>69</v>
+      <c r="AM5" s="4">
+        <v>44739.470729166664</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:40">
+    <row r="6" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>77225</v>
       </c>
@@ -1865,17 +1167,16 @@
         <v>1656300116496</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>67</v>
+      </c>
       <c r="F6" s="1">
-        <v>113.4445969</v>
+        <v>113.44459689999999</v>
       </c>
       <c r="G6" s="1">
-        <v>22.9428226800001</v>
+        <v>22.942822680000099</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>45</v>
@@ -1884,10 +1185,10 @@
         <v>46</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>49</v>
@@ -1899,12 +1200,10 @@
         <v>51</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+        <v>70</v>
+      </c>
       <c r="R6" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="S6" s="1">
         <v>2.1</v>
@@ -1918,9 +1217,6 @@
       <c r="V6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
       <c r="Z6" s="1">
         <v>5</v>
       </c>
@@ -1936,7 +1232,6 @@
       <c r="AD6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AE6" s="1"/>
       <c r="AF6" s="1">
         <v>3</v>
       </c>
@@ -1952,18 +1247,17 @@
       <c r="AJ6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK6" s="1"/>
       <c r="AL6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM6" s="1" t="s">
-        <v>76</v>
+      <c r="AM6" s="4">
+        <v>44739.473564814813</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:40">
+    <row r="7" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>77228</v>
       </c>
@@ -1971,17 +1265,16 @@
         <v>1656300382228</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>74</v>
+      </c>
       <c r="F7" s="1">
         <v>113.4446179</v>
       </c>
       <c r="G7" s="1">
-        <v>22.94283293</v>
+        <v>22.942832930000002</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>45</v>
@@ -1990,7 +1283,7 @@
         <v>46</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>48</v>
@@ -2007,8 +1300,6 @@
       <c r="O7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
       <c r="R7" s="1">
         <v>22.1</v>
       </c>
@@ -2016,17 +1307,14 @@
         <v>7.3</v>
       </c>
       <c r="T7" s="1">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="U7" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
       <c r="Z7" s="1">
         <v>5</v>
       </c>
@@ -2042,8 +1330,6 @@
       <c r="AD7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
       <c r="AG7" s="1" t="s">
         <v>57</v>
       </c>
@@ -2056,18 +1342,17 @@
       <c r="AJ7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK7" s="1"/>
       <c r="AL7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM7" s="1" t="s">
-        <v>80</v>
+      <c r="AM7" s="4">
+        <v>44739.476643518516</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:40">
+    <row r="8" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>77235</v>
       </c>
@@ -2075,17 +1360,16 @@
         <v>1656300529398</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>74</v>
+      </c>
       <c r="F8" s="1">
         <v>113.4446532</v>
       </c>
       <c r="G8" s="1">
-        <v>22.9428338000001</v>
+        <v>22.942833800000098</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>45</v>
@@ -2111,8 +1395,6 @@
       <c r="O8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
       <c r="R8" s="1">
         <v>22.1</v>
       </c>
@@ -2123,14 +1405,11 @@
         <v>4.5</v>
       </c>
       <c r="U8" s="1">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
       <c r="Z8" s="1">
         <v>5</v>
       </c>
@@ -2146,8 +1425,6 @@
       <c r="AD8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
       <c r="AG8" s="1" t="s">
         <v>57</v>
       </c>
@@ -2160,18 +1437,17 @@
       <c r="AJ8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK8" s="1"/>
       <c r="AL8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM8" s="1" t="s">
-        <v>82</v>
+      <c r="AM8" s="4">
+        <v>44739.478344907409</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:40">
+    <row r="9" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>77237</v>
       </c>
@@ -2179,17 +1455,16 @@
         <v>1656300697147</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>74</v>
+      </c>
       <c r="F9" s="1">
         <v>113.4446705</v>
       </c>
       <c r="G9" s="1">
-        <v>22.9428313900001</v>
+        <v>22.942831390000102</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>45</v>
@@ -2215,8 +1490,6 @@
       <c r="O9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
       <c r="R9" s="1">
         <v>18.2</v>
       </c>
@@ -2232,9 +1505,6 @@
       <c r="V9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
       <c r="Z9" s="1">
         <v>5</v>
       </c>
@@ -2250,8 +1520,6 @@
       <c r="AD9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
       <c r="AG9" s="1" t="s">
         <v>57</v>
       </c>
@@ -2264,18 +1532,17 @@
       <c r="AJ9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK9" s="1"/>
       <c r="AL9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM9" s="1" t="s">
-        <v>84</v>
+      <c r="AM9" s="4">
+        <v>44739.48028935185</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:40">
+    <row r="10" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>77241</v>
       </c>
@@ -2283,17 +1550,16 @@
         <v>1656300783166</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>74</v>
+      </c>
       <c r="F10" s="1">
-        <v>113.4446991</v>
+        <v>113.44469909999999</v>
       </c>
       <c r="G10" s="1">
-        <v>22.9428339599999</v>
+        <v>22.942833959999898</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>45</v>
@@ -2319,8 +1585,6 @@
       <c r="O10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
       <c r="R10" s="1">
         <v>13.6</v>
       </c>
@@ -2336,9 +1600,6 @@
       <c r="V10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
       <c r="Z10" s="1">
         <v>5</v>
       </c>
@@ -2354,8 +1615,6 @@
       <c r="AD10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
       <c r="AG10" s="1" t="s">
         <v>57</v>
       </c>
@@ -2368,18 +1627,17 @@
       <c r="AJ10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK10" s="1"/>
       <c r="AL10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM10" s="1" t="s">
-        <v>86</v>
+      <c r="AM10" s="4">
+        <v>44739.48128472222</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:40">
+    <row r="11" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>77246</v>
       </c>
@@ -2387,17 +1645,16 @@
         <v>1656300857486</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>74</v>
+      </c>
       <c r="F11" s="1">
         <v>113.444712</v>
       </c>
       <c r="G11" s="1">
-        <v>22.94284578</v>
+        <v>22.942845779999999</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>45</v>
@@ -2423,8 +1680,6 @@
       <c r="O11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
       <c r="R11" s="1">
         <v>17.7</v>
       </c>
@@ -2432,7 +1687,7 @@
         <v>4.3</v>
       </c>
       <c r="T11" s="1">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="U11" s="1">
         <v>3.5</v>
@@ -2440,9 +1695,6 @@
       <c r="V11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
       <c r="Z11" s="1">
         <v>5</v>
       </c>
@@ -2458,8 +1710,6 @@
       <c r="AD11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
       <c r="AG11" s="1" t="s">
         <v>57</v>
       </c>
@@ -2472,18 +1722,17 @@
       <c r="AJ11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK11" s="1"/>
       <c r="AL11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM11" s="1" t="s">
-        <v>88</v>
+      <c r="AM11" s="4">
+        <v>44739.482141203705</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:40">
+    <row r="12" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>77252</v>
       </c>
@@ -2491,17 +1740,16 @@
         <v>1656300960750</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>74</v>
+      </c>
       <c r="F12" s="1">
         <v>113.4447387</v>
       </c>
       <c r="G12" s="1">
-        <v>22.94284138</v>
+        <v>22.942841380000001</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>45</v>
@@ -2527,8 +1775,6 @@
       <c r="O12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
       <c r="R12" s="1">
         <v>21.9</v>
       </c>
@@ -2536,17 +1782,14 @@
         <v>7.4</v>
       </c>
       <c r="T12" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="U12" s="1">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
       <c r="Z12" s="1">
         <v>5</v>
       </c>
@@ -2562,8 +1805,6 @@
       <c r="AD12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
       <c r="AG12" s="1" t="s">
         <v>57</v>
       </c>
@@ -2576,18 +1817,17 @@
       <c r="AJ12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK12" s="1"/>
       <c r="AL12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM12" s="1" t="s">
-        <v>90</v>
+      <c r="AM12" s="4">
+        <v>44739.48333333333</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:40">
+    <row r="13" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>77257</v>
       </c>
@@ -2595,12 +1835,11 @@
         <v>1656301047880</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>74</v>
+      </c>
       <c r="F13" s="1">
         <v>113.4447701</v>
       </c>
@@ -2631,8 +1870,6 @@
       <c r="O13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
       <c r="R13" s="1">
         <v>19.2</v>
       </c>
@@ -2648,9 +1885,6 @@
       <c r="V13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
       <c r="Z13" s="1">
         <v>5</v>
       </c>
@@ -2666,8 +1900,6 @@
       <c r="AD13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
       <c r="AG13" s="1" t="s">
         <v>57</v>
       </c>
@@ -2680,18 +1912,17 @@
       <c r="AJ13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK13" s="1"/>
       <c r="AL13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM13" s="1" t="s">
-        <v>92</v>
+      <c r="AM13" s="4">
+        <v>44739.484340277777</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:40">
+    <row r="14" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>77260</v>
       </c>
@@ -2699,17 +1930,16 @@
         <v>1656301167310</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>74</v>
+      </c>
       <c r="F14" s="1">
-        <v>113.4447767</v>
+        <v>113.44477670000001</v>
       </c>
       <c r="G14" s="1">
-        <v>22.9428616700001</v>
+        <v>22.942861670000099</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>45</v>
@@ -2735,8 +1965,6 @@
       <c r="O14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
       <c r="R14" s="1">
         <v>13.5</v>
       </c>
@@ -2752,9 +1980,6 @@
       <c r="V14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
       <c r="Z14" s="1">
         <v>5</v>
       </c>
@@ -2770,8 +1995,6 @@
       <c r="AD14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
       <c r="AG14" s="1" t="s">
         <v>57</v>
       </c>
@@ -2784,18 +2007,17 @@
       <c r="AJ14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK14" s="1"/>
       <c r="AL14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM14" s="1" t="s">
-        <v>94</v>
+      <c r="AM14" s="4">
+        <v>44739.485729166663</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:40">
+    <row r="15" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>77261</v>
       </c>
@@ -2806,14 +2028,13 @@
         <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>61</v>
+      </c>
       <c r="F15" s="1">
         <v>113.4447948</v>
       </c>
       <c r="G15" s="1">
-        <v>22.94287732</v>
+        <v>22.942877320000001</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>45</v>
@@ -2822,7 +2043,7 @@
         <v>46</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>48</v>
@@ -2839,10 +2060,8 @@
       <c r="O15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
       <c r="R15" s="1">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="S15" s="1">
         <v>3.7</v>
@@ -2856,9 +2075,6 @@
       <c r="V15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
       <c r="Z15" s="1">
         <v>5</v>
       </c>
@@ -2874,8 +2090,6 @@
       <c r="AD15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
       <c r="AG15" s="1" t="s">
         <v>57</v>
       </c>
@@ -2888,18 +2102,17 @@
       <c r="AJ15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK15" s="1"/>
       <c r="AL15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM15" s="1" t="s">
-        <v>96</v>
+      <c r="AM15" s="4">
+        <v>44739.486909722225</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:40">
+    <row r="16" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>77263</v>
       </c>
@@ -2907,17 +2120,16 @@
         <v>1656301366806</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>74</v>
+      </c>
       <c r="F16" s="1">
         <v>113.444812</v>
       </c>
       <c r="G16" s="1">
-        <v>22.9428639700001</v>
+        <v>22.942863970000101</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>45</v>
@@ -2943,8 +2155,6 @@
       <c r="O16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
       <c r="R16" s="1">
         <v>26</v>
       </c>
@@ -2952,7 +2162,7 @@
         <v>7.5</v>
       </c>
       <c r="T16" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="U16" s="1">
         <v>4.5</v>
@@ -2960,9 +2170,6 @@
       <c r="V16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
       <c r="Z16" s="1">
         <v>5</v>
       </c>
@@ -2978,8 +2185,6 @@
       <c r="AD16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
       <c r="AG16" s="1" t="s">
         <v>57</v>
       </c>
@@ -2992,18 +2197,17 @@
       <c r="AJ16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK16" s="1"/>
       <c r="AL16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM16" s="1" t="s">
-        <v>98</v>
+      <c r="AM16" s="4">
+        <v>44739.488032407404</v>
       </c>
       <c r="AN16" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:40">
+    <row r="17" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>77264</v>
       </c>
@@ -3011,12 +2215,11 @@
         <v>1656301477899</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="1"/>
+        <v>74</v>
+      </c>
       <c r="F17" s="1">
         <v>113.4448208</v>
       </c>
@@ -3030,7 +2233,7 @@
         <v>46</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>48</v>
@@ -3047,8 +2250,6 @@
       <c r="O17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
       <c r="R17" s="1">
         <v>16</v>
       </c>
@@ -3064,9 +2265,6 @@
       <c r="V17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
       <c r="Z17" s="1">
         <v>5</v>
       </c>
@@ -3082,8 +2280,6 @@
       <c r="AD17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
       <c r="AG17" s="1" t="s">
         <v>57</v>
       </c>
@@ -3096,18 +2292,17 @@
       <c r="AJ17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK17" s="1"/>
       <c r="AL17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM17" s="1" t="s">
-        <v>100</v>
+      <c r="AM17" s="4">
+        <v>44739.489317129628</v>
       </c>
       <c r="AN17" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:40">
+    <row r="18" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>77270</v>
       </c>
@@ -3118,9 +2313,8 @@
         <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="1"/>
+        <v>74</v>
+      </c>
       <c r="F18" s="1">
         <v>113.4448459</v>
       </c>
@@ -3134,7 +2328,7 @@
         <v>46</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>48</v>
@@ -3151,8 +2345,6 @@
       <c r="O18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
       <c r="R18" s="1">
         <v>12.4</v>
       </c>
@@ -3168,9 +2360,6 @@
       <c r="V18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
       <c r="Z18" s="1">
         <v>5</v>
       </c>
@@ -3186,8 +2375,6 @@
       <c r="AD18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
       <c r="AG18" s="1" t="s">
         <v>57</v>
       </c>
@@ -3200,18 +2387,17 @@
       <c r="AJ18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK18" s="1"/>
       <c r="AL18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM18" s="1" t="s">
-        <v>102</v>
+      <c r="AM18" s="4">
+        <v>44739.490949074076</v>
       </c>
       <c r="AN18" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:40">
+    <row r="19" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>77271</v>
       </c>
@@ -3219,12 +2405,11 @@
         <v>1656301538395</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="1"/>
+        <v>74</v>
+      </c>
       <c r="F19" s="1">
         <v>113.4448517</v>
       </c>
@@ -3255,8 +2440,6 @@
       <c r="O19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
       <c r="R19" s="1">
         <v>16.2</v>
       </c>
@@ -3272,9 +2455,6 @@
       <c r="V19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
       <c r="Z19" s="1">
         <v>5</v>
       </c>
@@ -3290,8 +2470,6 @@
       <c r="AD19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
       <c r="AG19" s="1" t="s">
         <v>57</v>
       </c>
@@ -3304,18 +2482,17 @@
       <c r="AJ19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK19" s="1"/>
       <c r="AL19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM19" s="1" t="s">
-        <v>104</v>
+      <c r="AM19" s="4">
+        <v>44739.490023148152</v>
       </c>
       <c r="AN19" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:40">
+    <row r="20" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>77275</v>
       </c>
@@ -3326,9 +2503,8 @@
         <v>44</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="1"/>
+        <v>61</v>
+      </c>
       <c r="F20" s="1">
         <v>113.4448716</v>
       </c>
@@ -3342,7 +2518,7 @@
         <v>46</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>48</v>
@@ -3359,8 +2535,6 @@
       <c r="O20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
       <c r="R20" s="1">
         <v>11.3</v>
       </c>
@@ -3376,9 +2550,6 @@
       <c r="V20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
       <c r="Z20" s="1">
         <v>5</v>
       </c>
@@ -3394,8 +2565,6 @@
       <c r="AD20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
       <c r="AG20" s="1" t="s">
         <v>57</v>
       </c>
@@ -3408,18 +2577,17 @@
       <c r="AJ20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK20" s="1"/>
       <c r="AL20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM20" s="1" t="s">
-        <v>106</v>
+      <c r="AM20" s="4">
+        <v>44739.491782407407</v>
       </c>
       <c r="AN20" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:40">
+    <row r="21" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>77278</v>
       </c>
@@ -3430,9 +2598,8 @@
         <v>44</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="1"/>
+        <v>61</v>
+      </c>
       <c r="F21" s="1">
         <v>113.4448964</v>
       </c>
@@ -3446,7 +2613,7 @@
         <v>46</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>48</v>
@@ -3463,8 +2630,6 @@
       <c r="O21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
       <c r="R21" s="1">
         <v>15</v>
       </c>
@@ -3480,9 +2645,6 @@
       <c r="V21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
       <c r="Z21" s="1">
         <v>5</v>
       </c>
@@ -3498,8 +2660,6 @@
       <c r="AD21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
       <c r="AG21" s="1" t="s">
         <v>57</v>
       </c>
@@ -3512,19 +2672,19 @@
       <c r="AJ21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK21" s="1"/>
       <c r="AL21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AM21" s="1" t="s">
-        <v>108</v>
+      <c r="AM21" s="4">
+        <v>44739.493020833332</v>
       </c>
       <c r="AN21" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>